--- a/document/게시판api설계.xlsx
+++ b/document/게시판api설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\project-border\project-border\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github2\project-board\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,175 +106,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>게시판 검색 전용 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 해시태그 검색 전용 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 데이터가 전달 될지 선계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pw, email,(nickname), etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 (전체) 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터: 제목, 본문, ID, 글쓴이, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 본문, ID, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT / PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 본문, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articlesComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 (전체)리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articlesComments/{article-comment-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록(쓰기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 등록(쓰기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문, id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글의 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articlesComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articlesComments/{article-comment-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/articles/search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 검색 전용 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/articles/hashtag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 해시태그 검색 전용 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 데이터가 전달 될지 선계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/sign-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id, pw, email,(nickname), etc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID, PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 (전체) 리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필터: 제목, 본문, ID, 글쓴이, 해시태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articles/{article-id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 단일 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 본문, ID, 해시태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT / PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 본문, 해시태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articlesComments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 (전체)리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 단일 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articlesComments/{article-comment-id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 등록(쓰기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 등록(쓰기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 게시글과 관련된 댓글 리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 게시글과 관련된 댓글 단일 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본문, id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글의 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articles/{article-id}/articlesComments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articles/{article-id}/articlesComments/{article-comment-id}</t>
+    <t>/articles/search/hashtag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,214 +727,214 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
